--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2064786.259205801</v>
+        <v>-2067647.072998093</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,70 +659,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="E2" t="n">
-        <v>34.14624390214158</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>121.3132848696569</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>198.132941603185</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>110.9659006356696</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>30.52826657341103</v>
       </c>
       <c r="C3" t="n">
-        <v>137.2221375272676</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>52.07040729879575</v>
       </c>
       <c r="W4" t="n">
-        <v>156.6047660867509</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.1346772411287</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>116.704103435943</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>166.6761220972555</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>89.14525753719026</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>52.15739706209909</v>
+        <v>232.0477154881478</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>116.9579671883064</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.74167907658358</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815019</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>15.73465120155209</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690662</v>
+        <v>23.79630926906617</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>124.7508337777528</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0076340145405</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>274.628563349667</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>97.12313590525079</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.33251894258945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>221.0162958535653</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.4286493356916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>105.0006820737984</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>86.80636739625365</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.9273329298508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369472</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.453391420151112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.97896981790655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>244.2124161126079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4589496224476</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>854.721235558363</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C2" t="n">
-        <v>588.343578991185</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D2" t="n">
-        <v>321.9659224240071</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672984</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
         <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>854.721235558363</v>
+        <v>932.3168484205125</v>
       </c>
       <c r="U2" t="n">
-        <v>854.721235558363</v>
+        <v>932.3168484205125</v>
       </c>
       <c r="V2" t="n">
-        <v>854.721235558363</v>
+        <v>932.3168484205125</v>
       </c>
       <c r="W2" t="n">
-        <v>854.721235558363</v>
+        <v>665.9391918533346</v>
       </c>
       <c r="X2" t="n">
-        <v>854.721235558363</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y2" t="n">
-        <v>854.721235558363</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.636574548681</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C3" t="n">
-        <v>305.0283548241683</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4407,25 +4407,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4446,13 +4446,13 @@
         <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742819</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X3" t="n">
-        <v>611.8519115687491</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.8519115687491</v>
+        <v>357.7057562811264</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.9843993892782</v>
+        <v>776.7901127551543</v>
       </c>
       <c r="C4" t="n">
-        <v>473.0482164613713</v>
+        <v>607.8539298272474</v>
       </c>
       <c r="D4" t="n">
-        <v>322.9315770490356</v>
+        <v>607.8539298272474</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>776.7901127551543</v>
       </c>
       <c r="W4" t="n">
-        <v>641.9843993892782</v>
+        <v>776.7901127551543</v>
       </c>
       <c r="X4" t="n">
-        <v>641.9843993892782</v>
+        <v>776.7901127551543</v>
       </c>
       <c r="Y4" t="n">
-        <v>641.9843993892782</v>
+        <v>776.7901127551543</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4601,16 +4601,16 @@
         <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>534.7928453799753</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W5" t="n">
-        <v>268.4151888127974</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X5" t="n">
-        <v>268.4151888127974</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.4151888127974</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>492.1842811376358</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4644,22 +4644,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>868.1599169226577</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>868.1599169226577</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V6" t="n">
-        <v>868.1599169226577</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W6" t="n">
-        <v>868.1599169226577</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X6" t="n">
-        <v>868.1599169226577</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.3996181577038</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.4381933466805</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092332</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>493.8069210092332</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1224328033463</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>186.4381933466805</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X7" t="n">
-        <v>186.4381933466805</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.4381933466805</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>849.3558178649453</v>
+        <v>569.2497984310726</v>
       </c>
       <c r="C8" t="n">
-        <v>849.3558178649453</v>
+        <v>451.1104376348035</v>
       </c>
       <c r="D8" t="n">
-        <v>849.3558178649453</v>
+        <v>451.1104376348035</v>
       </c>
       <c r="E8" t="n">
-        <v>849.3558178649453</v>
+        <v>65.32218503655922</v>
       </c>
       <c r="F8" t="n">
-        <v>438.3699130753376</v>
+        <v>58.37668428735574</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797987</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="H8" t="n">
-        <v>120.443861097019</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181676</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J8" t="n">
         <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677479</v>
+        <v>397.060171667748</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937551</v>
+        <v>719.9935330937556</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721573</v>
+        <v>1110.988557721574</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999416</v>
+        <v>1512.924098999417</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830551</v>
+        <v>1879.125171830552</v>
       </c>
       <c r="P8" t="n">
         <v>2157.168314271717</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257576</v>
+        <v>2317.794388257577</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="U8" t="n">
-        <v>2309.926532518563</v>
+        <v>2072.2233840022</v>
       </c>
       <c r="V8" t="n">
-        <v>1978.863645174993</v>
+        <v>2072.2233840022</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.094989904879</v>
+        <v>1719.454728732086</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.094989904879</v>
+        <v>1345.988970471006</v>
       </c>
       <c r="Y8" t="n">
-        <v>1235.955657929067</v>
+        <v>955.8496384951943</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3005198785846</v>
+        <v>794.4942745006746</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8474905974576</v>
+        <v>620.0412452195476</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9130809362064</v>
+        <v>471.1068355582963</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307509</v>
+        <v>311.8693805528408</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576359</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117656</v>
+        <v>70.55307842117655</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181676</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977895</v>
+        <v>99.15933091977905</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412814</v>
+        <v>402.9718154420752</v>
       </c>
       <c r="L9" t="n">
-        <v>539.683345633695</v>
+        <v>675.3658557344891</v>
       </c>
       <c r="M9" t="n">
-        <v>876.9112108303582</v>
+        <v>1012.593720931152</v>
       </c>
       <c r="N9" t="n">
-        <v>1237.473139081694</v>
+        <v>1373.155649182488</v>
       </c>
       <c r="O9" t="n">
-        <v>1813.113618680426</v>
+        <v>1680.779576843375</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106028</v>
+        <v>2223.619974106029</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160692</v>
+        <v>2188.151005160693</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661024</v>
+        <v>1993.721818661025</v>
       </c>
       <c r="U9" t="n">
-        <v>1993.721818661024</v>
+        <v>1867.710875451173</v>
       </c>
       <c r="V9" t="n">
-        <v>1758.569710429281</v>
+        <v>1632.558767219431</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.127655869139</v>
+        <v>1378.321410491229</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276155663606</v>
+        <v>1170.469910285696</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.515856898653</v>
+        <v>962.7096115207426</v>
       </c>
     </row>
     <row r="10">
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.1176640497071</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="C10" t="n">
-        <v>661.1176640497071</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="D10" t="n">
-        <v>511.0010246373713</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="E10" t="n">
-        <v>511.0010246373713</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="F10" t="n">
-        <v>364.1110771394609</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="G10" t="n">
         <v>196.0367224558855</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181676</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181676</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190952</v>
+        <v>65.89540801909526</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736012</v>
+        <v>227.5779039736014</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632607</v>
+        <v>490.0022680632609</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794038</v>
+        <v>777.0810884794041</v>
       </c>
       <c r="N10" t="n">
         <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257113</v>
+        <v>1310.630639257114</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325115</v>
+        <v>1499.198894325116</v>
       </c>
       <c r="Q10" t="n">
         <v>1546.318699718229</v>
@@ -4987,25 +4987,25 @@
         <v>1546.318699718229</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020052</v>
+        <v>1348.158269020053</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.158269020052</v>
+        <v>1348.158269020053</v>
       </c>
       <c r="U10" t="n">
-        <v>1070.755679777964</v>
+        <v>1059.035137524334</v>
       </c>
       <c r="V10" t="n">
-        <v>1070.755679777964</v>
+        <v>804.3506493184476</v>
       </c>
       <c r="W10" t="n">
-        <v>1070.755679777964</v>
+        <v>514.9334792814871</v>
       </c>
       <c r="X10" t="n">
-        <v>842.7661288799468</v>
+        <v>416.8293015994155</v>
       </c>
       <c r="Y10" t="n">
-        <v>842.7661288799468</v>
+        <v>196.0367224558855</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>766.1932606498908</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>618.2801670674977</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>471.3902195695873</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1941202844673</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>162.4822891266654</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6175,22 +6175,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.022157454266</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
         <v>782.551295565682</v>
@@ -6847,22 +6847,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,52 +6917,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,43 +7160,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,25 +7570,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140412</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.0530405058521</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>270.7237898362076</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.7920193095827</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.3816465586479</v>
+        <v>27.38164655864786</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>14.15677400003828</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>258.7652000427994</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.48636146104818</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.9182322498401</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>65.16817853567889</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>22.81817176293623</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.4047682534898</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>59.62759525031552</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.64330621514762</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>13.28686650065897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>42.31058222398312</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>127.7255247667966</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772871</v>
+        <v>67700.8563577287</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900067</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900064</v>
       </c>
       <c r="G2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.65996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>80714.65996900063</v>
-      </c>
       <c r="I2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="J2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.522851297</v>
+        <v>331437.5228512974</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424124</v>
+        <v>563905.784342412</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201176</v>
+        <v>99845.14336201186</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.676956956</v>
+        <v>147342.6769569559</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.843059286940842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167228.554393567</v>
+        <v>167228.5543935669</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077265</v>
+        <v>154923.9080077264</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,25 +26436,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768927</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768847</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486229</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486232</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486236</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-842663.4818312974</v>
+        <v>-843023.564847015</v>
       </c>
       <c r="C6" t="n">
         <v>-230381.5925485423</v>
       </c>
       <c r="D6" t="n">
-        <v>-492548.0493380309</v>
+        <v>-492548.0493380312</v>
       </c>
       <c r="E6" t="n">
-        <v>-594260.7985190877</v>
+        <v>-594295.536444523</v>
       </c>
       <c r="F6" t="n">
-        <v>-30355.01417667537</v>
+        <v>-30389.75210211106</v>
       </c>
       <c r="G6" t="n">
-        <v>-30355.01417667539</v>
+        <v>-30389.75210211106</v>
       </c>
       <c r="H6" t="n">
-        <v>-30355.01417667538</v>
+        <v>-30389.75210211113</v>
       </c>
       <c r="I6" t="n">
-        <v>-30355.01417667545</v>
+        <v>-30389.75210211094</v>
       </c>
       <c r="J6" t="n">
-        <v>-99354.16859578948</v>
+        <v>-99388.90652122513</v>
       </c>
       <c r="K6" t="n">
-        <v>-30355.01417667544</v>
+        <v>-30389.75210211112</v>
       </c>
       <c r="L6" t="n">
         <v>-138843.0858143612</v>
       </c>
       <c r="M6" t="n">
-        <v>-186340.6194093054</v>
+        <v>-186340.6194093052</v>
       </c>
       <c r="N6" t="n">
-        <v>-38997.94245234935</v>
+        <v>-38997.94245234937</v>
       </c>
       <c r="O6" t="n">
-        <v>-38997.94245234943</v>
+        <v>-38997.94245234938</v>
       </c>
       <c r="P6" t="n">
-        <v>-38997.94245234939</v>
+        <v>-38997.94245234941</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.813286589679</v>
+        <v>885.8132865896794</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977096</v>
+        <v>581.4550298977097</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,22 +26808,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.053824108676052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202007</v>
+        <v>271.7582728202011</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519947</v>
+        <v>482.1622137519944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962034</v>
+        <v>317.7411498962035</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019388</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962035</v>
+        <v>317.7411498962038</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019388</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962034</v>
+        <v>317.7411498962035</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019388</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>347.7841261701202</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>90.97643073356635</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>136.0049170764563</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.0672360250323</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.5991644223519</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>248.5687883350646</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>28.16486548762131</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>116.5374382401141</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>234.3656012744919</v>
+        <v>54.47528284844319</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>248.3149245827012</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411815016</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>235.3261170312003</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>101.0651973664404</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68734914637906</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>11.60333683109371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.5865194837864</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.678960998152214e-13</v>
+        <v>-7.275063662809152e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551471</v>
+        <v>3.561058438551472</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381526</v>
+        <v>36.46968973381527</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522557</v>
+        <v>137.2877054522558</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490082</v>
+        <v>302.2403836490083</v>
       </c>
       <c r="K8" t="n">
-        <v>452.979987352892</v>
+        <v>452.9799873528922</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417117</v>
+        <v>561.961729541712</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483014</v>
+        <v>625.2907025483016</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368358</v>
+        <v>635.408559836836</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884896</v>
+        <v>599.9982849884898</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867501</v>
+        <v>512.0846547867503</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561254</v>
+        <v>384.5542494561255</v>
       </c>
       <c r="R8" t="n">
-        <v>223.692337140659</v>
+        <v>223.6923371406591</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849172</v>
+        <v>81.14761916849176</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475907</v>
+        <v>15.58853331475908</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841176</v>
+        <v>0.2848846750841177</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079687</v>
+        <v>1.905334239079688</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953277</v>
+        <v>18.40151751953278</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234888</v>
+        <v>65.60032358234891</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474366</v>
+        <v>180.0123019474367</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657756</v>
+        <v>307.6696959657758</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247365</v>
+        <v>413.6998750247366</v>
       </c>
       <c r="M9" t="n">
-        <v>482.768241191375</v>
+        <v>482.7682411913752</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139753</v>
+        <v>495.5456800139755</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059464</v>
+        <v>453.3274845059466</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730325</v>
+        <v>363.8352723730327</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726983</v>
+        <v>243.2142442726984</v>
       </c>
       <c r="R9" t="n">
         <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799329</v>
+        <v>35.3907478179933</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150139</v>
+        <v>7.679834060150142</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815584</v>
+        <v>0.1253509367815585</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719093</v>
+        <v>1.597368221719094</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401158</v>
+        <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587965</v>
+        <v>48.03721888587967</v>
       </c>
       <c r="J10" t="n">
         <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051819</v>
+        <v>185.585144305182</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817641</v>
+        <v>237.4850899817642</v>
       </c>
       <c r="M10" t="n">
-        <v>250.394729519112</v>
+        <v>250.3947295191121</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108865</v>
+        <v>244.4409025108866</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753497</v>
+        <v>225.7807373753498</v>
       </c>
       <c r="P10" t="n">
         <v>193.1944256522801</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750415</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020576</v>
+        <v>71.82348386020578</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577728</v>
+        <v>27.83777164577729</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527033</v>
+        <v>6.825118765527035</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013246</v>
+        <v>0.08712917573013249</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>484.1423712692491</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>491.1355220041058</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>204.3779992811859</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33758,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204532</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223219</v>
+        <v>121.194479122322</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079115</v>
+        <v>232.8901363079116</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717245</v>
+        <v>326.1953145717247</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210287</v>
+        <v>394.9444693210289</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402449</v>
+        <v>405.9954962402451</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668028</v>
+        <v>369.900073566803</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314806</v>
+        <v>280.8516590314808</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816759</v>
+        <v>162.2485595816761</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526897</v>
+        <v>8.106799326526982</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528076989</v>
+        <v>53.17467528076997</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914166</v>
+        <v>306.8812974972689</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448623</v>
+        <v>275.1454952448624</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693567</v>
+        <v>340.6342072693569</v>
       </c>
       <c r="N9" t="n">
-        <v>364.203967930642</v>
+        <v>364.2039679306422</v>
       </c>
       <c r="O9" t="n">
-        <v>581.4550298977096</v>
+        <v>310.7312400615021</v>
       </c>
       <c r="P9" t="n">
-        <v>414.652884268285</v>
+        <v>548.3236335986396</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866768</v>
+        <v>103.2324701866769</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886711</v>
+        <v>19.57475315886715</v>
       </c>
       <c r="K10" t="n">
-        <v>163.315652479299</v>
+        <v>163.3156524792991</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420803</v>
+        <v>265.0751152420804</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809526</v>
+        <v>289.9786064809527</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901151</v>
+        <v>288.5730748901152</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893894</v>
+        <v>250.3658652893895</v>
       </c>
       <c r="P10" t="n">
         <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334715</v>
+        <v>47.5957630233472</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>350.1679638549188</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>349.0014880820875</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>77.54037261451921</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>313.1582113770268</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>92.97430510914305</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
